--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptprc-Cd22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptprc-Cd22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -540,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10502</v>
+        <v>0.384696</v>
       </c>
       <c r="H2">
-        <v>2.21004</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="I2">
-        <v>0.001923002024630407</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="J2">
-        <v>0.00128282364057296</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N2">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O2">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P2">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q2">
-        <v>6.730349734080001</v>
+        <v>0.4898577808800001</v>
       </c>
       <c r="R2">
-        <v>40.38209840448</v>
+        <v>2.939146685280001</v>
       </c>
       <c r="S2">
-        <v>0.0007445515453970425</v>
+        <v>6.995151011079618E-05</v>
       </c>
       <c r="T2">
-        <v>0.0004966860730393817</v>
+        <v>4.664942827825878E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10502</v>
+        <v>0.384696</v>
       </c>
       <c r="H3">
-        <v>2.21004</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="I3">
-        <v>0.001923002024630407</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="J3">
-        <v>0.00128282364057296</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N3">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O3">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P3">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q3">
-        <v>0.06699809928</v>
+        <v>0.313764597432</v>
       </c>
       <c r="R3">
-        <v>0.4019885956800001</v>
+        <v>1.882587584592</v>
       </c>
       <c r="S3">
-        <v>7.411730493735965E-06</v>
+        <v>4.480546857956534E-05</v>
       </c>
       <c r="T3">
-        <v>4.944322976855616E-06</v>
+        <v>2.98799767105188E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10502</v>
+        <v>0.384696</v>
       </c>
       <c r="H4">
-        <v>2.21004</v>
+        <v>0.7693920000000001</v>
       </c>
       <c r="I4">
-        <v>0.001923002024630407</v>
+        <v>0.0003953339325349752</v>
       </c>
       <c r="J4">
-        <v>0.00128282364057296</v>
+        <v>0.000263641226651746</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N4">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O4">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P4">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q4">
-        <v>10.58556708384</v>
+        <v>1.96482969072</v>
       </c>
       <c r="R4">
-        <v>63.51340250304001</v>
+        <v>11.78897814432</v>
       </c>
       <c r="S4">
-        <v>0.001171038748739629</v>
+        <v>0.0002805769538446136</v>
       </c>
       <c r="T4">
-        <v>0.0007811932445567225</v>
+        <v>0.0001871118216629684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,10 +735,10 @@
         <v>0.016163</v>
       </c>
       <c r="I5">
-        <v>9.37584288794208E-06</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="J5">
-        <v>9.381856664395554E-06</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N5">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O5">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P5">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q5">
-        <v>0.03281468291733333</v>
+        <v>0.006860457185555556</v>
       </c>
       <c r="R5">
-        <v>0.295332146256</v>
+        <v>0.06174411467000001</v>
       </c>
       <c r="S5">
-        <v>3.630156506444045E-06</v>
+        <v>9.796707512085721E-07</v>
       </c>
       <c r="T5">
-        <v>3.632484931736768E-06</v>
+        <v>9.799877166145432E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,40 +797,40 @@
         <v>0.016163</v>
       </c>
       <c r="I6">
-        <v>9.37584288794208E-06</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="J6">
-        <v>9.381856664395554E-06</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N6">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O6">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P6">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q6">
-        <v>0.0003266578217777778</v>
+        <v>0.004394272523666667</v>
       </c>
       <c r="R6">
-        <v>0.002939920396</v>
+        <v>0.039548452713</v>
       </c>
       <c r="S6">
-        <v>3.613684215979632E-08</v>
+        <v>6.275004927280367E-07</v>
       </c>
       <c r="T6">
-        <v>3.616002075750544E-08</v>
+        <v>6.277035159867991E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,10 +859,10 @@
         <v>0.016163</v>
       </c>
       <c r="I7">
-        <v>9.37584288794208E-06</v>
+        <v>5.536650889328026E-06</v>
       </c>
       <c r="J7">
-        <v>9.381856664395554E-06</v>
+        <v>5.538442232791829E-06</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N7">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O7">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P7">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q7">
-        <v>0.0516112893208889</v>
+        <v>0.02751743566444445</v>
       </c>
       <c r="R7">
-        <v>0.464501603888</v>
+        <v>0.24765692098</v>
       </c>
       <c r="S7">
-        <v>5.709549539338239E-06</v>
+        <v>3.929479645391417E-06</v>
       </c>
       <c r="T7">
-        <v>5.713211711901281E-06</v>
+        <v>3.930751000190486E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +900,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -912,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>236.563113</v>
+        <v>272.782435</v>
       </c>
       <c r="H8">
-        <v>709.689339</v>
+        <v>818.347305</v>
       </c>
       <c r="I8">
-        <v>0.4116770241732021</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="J8">
-        <v>0.4119410786826471</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N8">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O8">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P8">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q8">
-        <v>1440.835898601552</v>
+        <v>347.3511507063834</v>
       </c>
       <c r="R8">
-        <v>12967.52308741397</v>
+        <v>3126.16035635745</v>
       </c>
       <c r="S8">
-        <v>0.1593938855116515</v>
+        <v>0.04960161597716145</v>
       </c>
       <c r="T8">
-        <v>0.1594961226339001</v>
+        <v>0.04961766422227402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>236.563113</v>
+        <v>272.782435</v>
       </c>
       <c r="H9">
-        <v>709.689339</v>
+        <v>818.347305</v>
       </c>
       <c r="I9">
-        <v>0.4116770241732021</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="J9">
-        <v>0.4119410786826471</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N9">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O9">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P9">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q9">
-        <v>14.342979249932</v>
+        <v>222.485991287395</v>
       </c>
       <c r="R9">
-        <v>129.086813249388</v>
+        <v>2002.373921586555</v>
       </c>
       <c r="S9">
-        <v>0.001586706157639868</v>
+        <v>0.03177091734889321</v>
       </c>
       <c r="T9">
-        <v>0.001587723889724699</v>
+        <v>0.0317811966000632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,14 +1024,14 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>236.563113</v>
+        <v>272.782435</v>
       </c>
       <c r="H10">
-        <v>709.689339</v>
+        <v>818.347305</v>
       </c>
       <c r="I10">
-        <v>0.4116770241732021</v>
+        <v>0.2803256409087078</v>
       </c>
       <c r="J10">
-        <v>0.4119410786826471</v>
+        <v>0.2804163382480588</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N10">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O10">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P10">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q10">
-        <v>2266.162333915696</v>
+        <v>1393.232649663367</v>
       </c>
       <c r="R10">
-        <v>20395.46100524126</v>
+        <v>12539.0938469703</v>
       </c>
       <c r="S10">
-        <v>0.2506964325039108</v>
+        <v>0.1989531075826531</v>
       </c>
       <c r="T10">
-        <v>0.2508572321590223</v>
+        <v>0.1990174774257216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1086,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>1.594178</v>
+        <v>0.5595085</v>
       </c>
       <c r="H11">
-        <v>4.782534</v>
+        <v>1.119017</v>
       </c>
       <c r="I11">
-        <v>0.002774255236666534</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="J11">
-        <v>0.002776034676767823</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N11">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O11">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P11">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q11">
-        <v>9.709666321312</v>
+        <v>0.7124576085883333</v>
       </c>
       <c r="R11">
-        <v>87.386996891808</v>
+        <v>4.27474565153</v>
       </c>
       <c r="S11">
-        <v>0.001074141367158935</v>
+        <v>0.0001017386832585376</v>
       </c>
       <c r="T11">
-        <v>0.001074830334128489</v>
+        <v>6.784773338383073E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>1.594178</v>
+        <v>0.5595085</v>
       </c>
       <c r="H12">
-        <v>4.782534</v>
+        <v>1.119017</v>
       </c>
       <c r="I12">
-        <v>0.002774255236666534</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="J12">
-        <v>0.002776034676767823</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N12">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O12">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P12">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q12">
-        <v>0.09665607492533333</v>
+        <v>0.4563446442445</v>
       </c>
       <c r="R12">
-        <v>0.869904674328</v>
+        <v>2.738067865467</v>
       </c>
       <c r="S12">
-        <v>1.069267315980074E-05</v>
+        <v>6.516584658210568E-05</v>
       </c>
       <c r="T12">
-        <v>1.069953156675589E-05</v>
+        <v>4.345795368118542E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1210,31 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>1.594178</v>
+        <v>0.5595085</v>
       </c>
       <c r="H13">
-        <v>4.782534</v>
+        <v>1.119017</v>
       </c>
       <c r="I13">
-        <v>0.002774255236666534</v>
+        <v>0.0005749804926272826</v>
       </c>
       <c r="J13">
-        <v>0.002776034676767823</v>
+        <v>0.0003834443489458648</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.579525333333335</v>
+        <v>5.107486666666667</v>
       </c>
       <c r="N13">
-        <v>28.738576</v>
+        <v>15.32246</v>
       </c>
       <c r="O13">
-        <v>0.6089638667773621</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="P13">
-        <v>0.608963866777362</v>
+        <v>0.7097214044984388</v>
       </c>
       <c r="Q13">
-        <v>15.27146853684267</v>
+        <v>2.857682203636667</v>
       </c>
       <c r="R13">
-        <v>137.443216831584</v>
+        <v>17.14609322182</v>
       </c>
       <c r="S13">
-        <v>0.001689421196347798</v>
+        <v>0.0004080759627866392</v>
       </c>
       <c r="T13">
-        <v>0.001690504811072578</v>
+        <v>0.0002721386618808486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1272,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>335.3650816666666</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="H14">
-        <v>1006.095245</v>
+        <v>1755.696106</v>
       </c>
       <c r="I14">
-        <v>0.583616342722613</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="J14">
-        <v>0.5839906811433476</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.090704</v>
+        <v>1.273363333333333</v>
       </c>
       <c r="N14">
-        <v>18.272112</v>
+        <v>3.82009</v>
       </c>
       <c r="O14">
-        <v>0.387181883253681</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="P14">
-        <v>0.3871818832536809</v>
+        <v>0.1769428433887536</v>
       </c>
       <c r="Q14">
-        <v>2042.609444367493</v>
+        <v>745.2130152855045</v>
       </c>
       <c r="R14">
-        <v>18383.48499930744</v>
+        <v>6706.917137569541</v>
       </c>
       <c r="S14">
-        <v>0.225965674672967</v>
+        <v>0.1064161432320104</v>
       </c>
       <c r="T14">
-        <v>0.2261106117276812</v>
+        <v>0.1064505734076585</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1334,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>335.3650816666666</v>
+        <v>585.2320353333333</v>
       </c>
       <c r="H15">
-        <v>1006.095245</v>
+        <v>1755.696106</v>
       </c>
       <c r="I15">
-        <v>0.583616342722613</v>
+        <v>0.6014153564730961</v>
       </c>
       <c r="J15">
-        <v>0.5839906811433476</v>
+        <v>0.6016099400741544</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.06063066666666667</v>
+        <v>0.815617</v>
       </c>
       <c r="N15">
-        <v>0.181892</v>
+        <v>2.446851</v>
       </c>
       <c r="O15">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="P15">
-        <v>0.003854249968956984</v>
+        <v>0.1133357521128076</v>
       </c>
       <c r="Q15">
-        <v>20.33340847817111</v>
+        <v>477.3251969624674</v>
       </c>
       <c r="R15">
-        <v>183.00067630354</v>
+        <v>4295.926772662206</v>
       </c>
       <c r="S15">
-        <v>0.00224940327082142</v>
+        <v>0.06816186175807061</v>
       </c>
       <c r="T15">
-        <v>0.002250846064667915</v>
+        <v>0.06818391503684537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,247 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>585.2320353333333</v>
+      </c>
+      <c r="H16">
+        <v>1755.696106</v>
+      </c>
+      <c r="I16">
+        <v>0.6014153564730961</v>
+      </c>
+      <c r="J16">
+        <v>0.6016099400741544</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.107486666666667</v>
+      </c>
+      <c r="N16">
+        <v>15.32246</v>
+      </c>
+      <c r="O16">
+        <v>0.7097214044984388</v>
+      </c>
+      <c r="P16">
+        <v>0.7097214044984388</v>
+      </c>
+      <c r="Q16">
+        <v>2989.064817371196</v>
+      </c>
+      <c r="R16">
+        <v>26901.58335634076</v>
+      </c>
+      <c r="S16">
+        <v>0.426837351483015</v>
+      </c>
+      <c r="T16">
+        <v>0.4269754516296504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>114.1272113333333</v>
+      </c>
+      <c r="H17">
+        <v>342.381634</v>
+      </c>
+      <c r="I17">
+        <v>0.1172831515421446</v>
+      </c>
+      <c r="J17">
+        <v>0.1173210976599564</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.273363333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.82009</v>
+      </c>
+      <c r="O17">
+        <v>0.1769428433887536</v>
+      </c>
+      <c r="P17">
+        <v>0.1769428433887536</v>
+      </c>
+      <c r="Q17">
+        <v>145.3254062474511</v>
+      </c>
+      <c r="R17">
+        <v>1307.92865622706</v>
+      </c>
+      <c r="S17">
+        <v>0.02075241431546114</v>
+      </c>
+      <c r="T17">
+        <v>0.02075912860944232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>335.3650816666666</v>
-      </c>
-      <c r="H16">
-        <v>1006.095245</v>
-      </c>
-      <c r="I16">
-        <v>0.583616342722613</v>
-      </c>
-      <c r="J16">
-        <v>0.5839906811433476</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>9.579525333333335</v>
-      </c>
-      <c r="N16">
-        <v>28.738576</v>
-      </c>
-      <c r="O16">
-        <v>0.6089638667773621</v>
-      </c>
-      <c r="P16">
-        <v>0.608963866777362</v>
-      </c>
-      <c r="Q16">
-        <v>3212.638295741236</v>
-      </c>
-      <c r="R16">
-        <v>28913.74466167112</v>
-      </c>
-      <c r="S16">
-        <v>0.3554012647788246</v>
-      </c>
-      <c r="T16">
-        <v>0.3556292233509984</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>114.1272113333333</v>
+      </c>
+      <c r="H18">
+        <v>342.381634</v>
+      </c>
+      <c r="I18">
+        <v>0.1172831515421446</v>
+      </c>
+      <c r="J18">
+        <v>0.1173210976599564</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.815617</v>
+      </c>
+      <c r="N18">
+        <v>2.446851</v>
+      </c>
+      <c r="O18">
+        <v>0.1133357521128076</v>
+      </c>
+      <c r="P18">
+        <v>0.1133357521128076</v>
+      </c>
+      <c r="Q18">
+        <v>93.08409372605934</v>
+      </c>
+      <c r="R18">
+        <v>837.7568435345341</v>
+      </c>
+      <c r="S18">
+        <v>0.01329237419018934</v>
+      </c>
+      <c r="T18">
+        <v>0.0132966748419913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>114.1272113333333</v>
+      </c>
+      <c r="H19">
+        <v>342.381634</v>
+      </c>
+      <c r="I19">
+        <v>0.1172831515421446</v>
+      </c>
+      <c r="J19">
+        <v>0.1173210976599564</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.107486666666667</v>
+      </c>
+      <c r="N19">
+        <v>15.32246</v>
+      </c>
+      <c r="O19">
+        <v>0.7097214044984388</v>
+      </c>
+      <c r="P19">
+        <v>0.7097214044984388</v>
+      </c>
+      <c r="Q19">
+        <v>582.903210188849</v>
+      </c>
+      <c r="R19">
+        <v>5246.128891699641</v>
+      </c>
+      <c r="S19">
+        <v>0.0832383630364941</v>
+      </c>
+      <c r="T19">
+        <v>0.08326529420852272</v>
       </c>
     </row>
   </sheetData>
